--- a/data/newanalysis/new summary.xlsx
+++ b/data/newanalysis/new summary.xlsx
@@ -12,12 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24165" windowHeight="11505"/>
   </bookViews>
   <sheets>
-    <sheet name="6461" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -586,57 +583,18 @@
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6461'!$Q$24</c:f>
+              <c:f>sheet!$Q$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -653,12 +611,11 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'6461'!$R$23:$W$23</c:f>
+              <c:f>sheet!$R$23:$W$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -685,7 +642,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6461'!$R$24:$W$24</c:f>
+              <c:f>sheet!$R$24:$W$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -716,7 +673,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6461'!$Q$25</c:f>
+              <c:f>sheet!$Q$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -733,12 +690,11 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'6461'!$R$23:$W$23</c:f>
+              <c:f>sheet!$R$23:$W$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -765,7 +721,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6461'!$R$25:$W$25</c:f>
+              <c:f>sheet!$R$25:$W$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -796,7 +752,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6461'!$Q$26</c:f>
+              <c:f>sheet!$Q$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -813,12 +769,11 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'6461'!$R$23:$W$23</c:f>
+              <c:f>sheet!$R$23:$W$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -845,7 +800,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6461'!$R$26:$W$26</c:f>
+              <c:f>sheet!$R$26:$W$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -876,7 +831,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6461'!$Q$27</c:f>
+              <c:f>sheet!$Q$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -893,12 +848,11 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'6461'!$R$23:$W$23</c:f>
+              <c:f>sheet!$R$23:$W$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -925,7 +879,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6461'!$R$27:$W$27</c:f>
+              <c:f>sheet!$R$27:$W$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -956,7 +910,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6461'!$Q$28</c:f>
+              <c:f>sheet!$Q$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -973,12 +927,11 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'6461'!$R$23:$W$23</c:f>
+              <c:f>sheet!$R$23:$W$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1005,7 +958,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6461'!$R$28:$W$28</c:f>
+              <c:f>sheet!$R$28:$W$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1036,7 +989,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6461'!$Q$29</c:f>
+              <c:f>sheet!$Q$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1053,12 +1006,11 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'6461'!$R$23:$W$23</c:f>
+              <c:f>sheet!$R$23:$W$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1085,7 +1037,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6461'!$R$29:$W$29</c:f>
+              <c:f>sheet!$R$29:$W$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1116,7 +1068,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6461'!$Q$30</c:f>
+              <c:f>sheet!$Q$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1135,12 +1087,11 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'6461'!$R$23:$W$23</c:f>
+              <c:f>sheet!$R$23:$W$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1167,7 +1118,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6461'!$R$30:$W$30</c:f>
+              <c:f>sheet!$R$30:$W$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1198,7 +1149,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6461'!$Q$31</c:f>
+              <c:f>sheet!$Q$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1217,12 +1168,11 @@
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'6461'!$R$23:$W$23</c:f>
+              <c:f>sheet!$R$23:$W$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1249,7 +1199,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6461'!$R$31:$W$31</c:f>
+              <c:f>sheet!$R$31:$W$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1284,19 +1234,83 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="279299112"/>
-        <c:axId val="279305384"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:overlap val="100"/>
+        <c:axId val="404703344"/>
+        <c:axId val="404703736"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="279299112"/>
+        <c:axId val="404703344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404703736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="404703736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1327,67 +1341,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279305384"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="279305384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="279299112"/>
+        <c:crossAx val="404703344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1400,7 +1354,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1509,7 +1463,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1532,6 +1486,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -2007,19 +1972,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2035,217 +2000,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="6461"/>
-      <sheetName val="3967"/>
-      <sheetName val="3257"/>
-      <sheetName val="1755"/>
-      <sheetName val="1239"/>
-      <sheetName val="1221"/>
-      <sheetName val="all together"/>
-      <sheetName val="sorted"/>
-      <sheetName val="charts"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8">
-        <row r="12">
-          <cell r="I12" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="J12" t="str">
-            <v>B</v>
-          </cell>
-          <cell r="K12" t="str">
-            <v>C</v>
-          </cell>
-          <cell r="L12" t="str">
-            <v>D</v>
-          </cell>
-          <cell r="M12" t="str">
-            <v>E</v>
-          </cell>
-          <cell r="N12" t="str">
-            <v>F</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="H13">
-            <v>0</v>
-          </cell>
-          <cell r="I13">
-            <v>0.31645569620253167</v>
-          </cell>
-          <cell r="J13">
-            <v>0.18012422360248448</v>
-          </cell>
-          <cell r="K13">
-            <v>0.21296296296296297</v>
-          </cell>
-          <cell r="L13">
-            <v>0.18390804597701149</v>
-          </cell>
-          <cell r="M13">
-            <v>4.7619047619047616E-2</v>
-          </cell>
-          <cell r="N13">
-            <v>0.11347517730496454</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="H14">
-            <v>1</v>
-          </cell>
-          <cell r="I14">
-            <v>0.46835443037974683</v>
-          </cell>
-          <cell r="J14">
-            <v>0.34161490683229812</v>
-          </cell>
-          <cell r="K14">
-            <v>0.31481481481481483</v>
-          </cell>
-          <cell r="L14">
-            <v>0.31034482758620691</v>
-          </cell>
-          <cell r="M14">
-            <v>0.19047619047619047</v>
-          </cell>
-          <cell r="N14">
-            <v>0.36170212765957449</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="H15">
-            <v>2</v>
-          </cell>
-          <cell r="I15">
-            <v>0.11392405063291139</v>
-          </cell>
-          <cell r="J15">
-            <v>0.33540372670807456</v>
-          </cell>
-          <cell r="K15">
-            <v>0.28703703703703703</v>
-          </cell>
-          <cell r="L15">
-            <v>0.21839080459770116</v>
-          </cell>
-          <cell r="M15">
-            <v>0.52380952380952384</v>
-          </cell>
-          <cell r="N15">
-            <v>0.14893617021276595</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="H16">
-            <v>3</v>
-          </cell>
-          <cell r="I16">
-            <v>6.3291139240506333E-2</v>
-          </cell>
-          <cell r="J16">
-            <v>0.10559006211180125</v>
-          </cell>
-          <cell r="K16">
-            <v>0.1388888888888889</v>
-          </cell>
-          <cell r="L16">
-            <v>0.12643678160919541</v>
-          </cell>
-          <cell r="M16">
-            <v>0.16190476190476191</v>
-          </cell>
-          <cell r="N16">
-            <v>0.15602836879432624</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="H17">
-            <v>4</v>
-          </cell>
-          <cell r="I17">
-            <v>2.5316455696202531E-2</v>
-          </cell>
-          <cell r="J17">
-            <v>3.7267080745341616E-2</v>
-          </cell>
-          <cell r="K17">
-            <v>4.6296296296296294E-2</v>
-          </cell>
-          <cell r="L17">
-            <v>0.14942528735632185</v>
-          </cell>
-          <cell r="M17">
-            <v>7.6190476190476197E-2</v>
-          </cell>
-          <cell r="N17">
-            <v>0.10638297872340426</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="H18">
-            <v>5</v>
-          </cell>
-          <cell r="I18">
-            <v>1.2658227848101266E-2</v>
-          </cell>
-          <cell r="J18">
-            <v>0</v>
-          </cell>
-          <cell r="K18">
-            <v>0</v>
-          </cell>
-          <cell r="L18">
-            <v>1.1494252873563218E-2</v>
-          </cell>
-          <cell r="M18">
-            <v>0</v>
-          </cell>
-          <cell r="N18">
-            <v>7.8014184397163122E-2</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="H19">
-            <v>6</v>
-          </cell>
-          <cell r="I19">
-            <v>0</v>
-          </cell>
-          <cell r="J19">
-            <v>0</v>
-          </cell>
-          <cell r="K19">
-            <v>0</v>
-          </cell>
-          <cell r="L19">
-            <v>0</v>
-          </cell>
-          <cell r="M19">
-            <v>0</v>
-          </cell>
-          <cell r="N19">
-            <v>3.5460992907801421E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2514,7 +2268,7 @@
   <dimension ref="A1:W3151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+      <selection activeCell="Q23" sqref="Q23:W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3416,27 +3170,27 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <f>K1</f>
+        <f t="shared" ref="K23:P23" si="9">K1</f>
         <v>6461</v>
       </c>
       <c r="L23">
-        <f>L1</f>
+        <f t="shared" si="9"/>
         <v>3967</v>
       </c>
       <c r="M23">
-        <f>M1</f>
+        <f t="shared" si="9"/>
         <v>3257</v>
       </c>
       <c r="N23">
-        <f>N1</f>
+        <f t="shared" si="9"/>
         <v>1755</v>
       </c>
       <c r="O23">
-        <f>O1</f>
+        <f t="shared" si="9"/>
         <v>1239</v>
       </c>
       <c r="P23">
-        <f>P1</f>
+        <f t="shared" si="9"/>
         <v>1221</v>
       </c>
       <c r="R23">
@@ -3481,27 +3235,27 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <f>K2/K$21</f>
+        <f t="shared" ref="K24:P31" si="10">K2/K$21</f>
         <v>0.27304964539007093</v>
       </c>
       <c r="L24">
-        <f>L2/L$21</f>
+        <f t="shared" si="10"/>
         <v>0.18227848101265823</v>
       </c>
       <c r="M24">
-        <f>M2/M$21</f>
+        <f t="shared" si="10"/>
         <v>0.17515527950310558</v>
       </c>
       <c r="N24">
-        <f>N2/N$21</f>
+        <f t="shared" si="10"/>
         <v>0.17701149425287357</v>
       </c>
       <c r="O24">
-        <f>O2/O$21</f>
+        <f t="shared" si="10"/>
         <v>0.12130835185773262</v>
       </c>
       <c r="P24">
-        <f>P2/P$21</f>
+        <f t="shared" si="10"/>
         <v>0.1787037037037037</v>
       </c>
       <c r="Q24">
@@ -3549,27 +3303,27 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <f>K3/K$21</f>
+        <f t="shared" si="10"/>
         <v>0.2397163120567376</v>
       </c>
       <c r="L25">
-        <f>L3/L$21</f>
+        <f t="shared" si="10"/>
         <v>0.25316455696202533</v>
       </c>
       <c r="M25">
-        <f>M3/M$21</f>
+        <f t="shared" si="10"/>
         <v>0.33726708074534162</v>
       </c>
       <c r="N25">
-        <f>N3/N$21</f>
+        <f t="shared" si="10"/>
         <v>0.29310344827586204</v>
       </c>
       <c r="O25">
-        <f>O3/O$21</f>
+        <f t="shared" si="10"/>
         <v>0.39663385201651319</v>
       </c>
       <c r="P25">
-        <f>P3/P$21</f>
+        <f t="shared" si="10"/>
         <v>0.29629629629629628</v>
       </c>
       <c r="Q25">
@@ -3617,27 +3371,27 @@
         <v>2</v>
       </c>
       <c r="K26">
-        <f>K4/K$21</f>
+        <f t="shared" si="10"/>
         <v>0.30709219858156028</v>
       </c>
       <c r="L26">
-        <f>L4/L$21</f>
+        <f t="shared" si="10"/>
         <v>0.26962025316455696</v>
       </c>
       <c r="M26">
-        <f>M4/M$21</f>
+        <f t="shared" si="10"/>
         <v>0.29130434782608694</v>
       </c>
       <c r="N26">
-        <f>N4/N$21</f>
+        <f t="shared" si="10"/>
         <v>0.28620689655172415</v>
       </c>
       <c r="O26">
-        <f>O4/O$21</f>
+        <f t="shared" si="10"/>
         <v>0.31311527469037792</v>
       </c>
       <c r="P26">
-        <f>P4/P$21</f>
+        <f t="shared" si="10"/>
         <v>0.2898148148148148</v>
       </c>
       <c r="Q26">
@@ -3685,27 +3439,27 @@
         <v>3</v>
       </c>
       <c r="K27">
-        <f>K5/K$21</f>
+        <f t="shared" si="10"/>
         <v>0.12624113475177304</v>
       </c>
       <c r="L27">
-        <f>L5/L$21</f>
+        <f t="shared" si="10"/>
         <v>0.19873417721518988</v>
       </c>
       <c r="M27">
-        <f>M5/M$21</f>
+        <f t="shared" si="10"/>
         <v>0.1515527950310559</v>
       </c>
       <c r="N27">
-        <f>N5/N$21</f>
+        <f t="shared" si="10"/>
         <v>0.16206896551724137</v>
       </c>
       <c r="O27">
-        <f>O5/O$21</f>
+        <f t="shared" si="10"/>
         <v>0.12575420768497936</v>
       </c>
       <c r="P27">
-        <f>P5/P$21</f>
+        <f t="shared" si="10"/>
         <v>0.15555555555555556</v>
       </c>
       <c r="Q27">
@@ -3753,27 +3507,27 @@
         <v>4</v>
       </c>
       <c r="K28">
-        <f>K6/K$21</f>
+        <f t="shared" si="10"/>
         <v>3.8297872340425532E-2</v>
       </c>
       <c r="L28">
-        <f>L6/L$21</f>
+        <f t="shared" si="10"/>
         <v>7.9746835443037969E-2</v>
       </c>
       <c r="M28">
-        <f>M6/M$21</f>
+        <f t="shared" si="10"/>
         <v>3.9130434782608699E-2</v>
       </c>
       <c r="N28">
-        <f>N6/N$21</f>
+        <f t="shared" si="10"/>
         <v>5.7471264367816091E-2</v>
       </c>
       <c r="O28">
-        <f>O6/O$21</f>
+        <f t="shared" si="10"/>
         <v>3.3343918704350585E-2</v>
       </c>
       <c r="P28">
-        <f>P6/P$21</f>
+        <f t="shared" si="10"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q28">
@@ -3821,27 +3575,27 @@
         <v>5</v>
       </c>
       <c r="K29">
-        <f>K7/K$21</f>
+        <f t="shared" si="10"/>
         <v>1.5602836879432624E-2</v>
       </c>
       <c r="L29">
-        <f>L7/L$21</f>
+        <f t="shared" si="10"/>
         <v>1.6455696202531647E-2</v>
       </c>
       <c r="M29">
-        <f>M7/M$21</f>
+        <f t="shared" si="10"/>
         <v>5.5900621118012426E-3</v>
       </c>
       <c r="N29">
-        <f>N7/N$21</f>
+        <f t="shared" si="10"/>
         <v>1.8390804597701149E-2</v>
       </c>
       <c r="O29">
-        <f>O7/O$21</f>
+        <f t="shared" si="10"/>
         <v>8.2565893934582399E-3</v>
       </c>
       <c r="P29">
-        <f>P7/P$21</f>
+        <f t="shared" si="10"/>
         <v>4.6296296296296294E-3</v>
       </c>
       <c r="Q29">
@@ -3889,27 +3643,27 @@
         <v>6</v>
       </c>
       <c r="K30">
-        <f>K8/K$21</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L30">
-        <f>L8/L$21</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M30">
-        <f>M8/M$21</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N30">
-        <f>N8/N$21</f>
+        <f t="shared" si="10"/>
         <v>5.7471264367816091E-3</v>
       </c>
       <c r="O30">
-        <f>O8/O$21</f>
+        <f t="shared" si="10"/>
         <v>1.5878056525881232E-3</v>
       </c>
       <c r="P30">
-        <f>P8/P$21</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q30">
@@ -3957,27 +3711,27 @@
         <v>7</v>
       </c>
       <c r="K31">
-        <f>K9/K$21</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L31">
-        <f>L9/L$21</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M31">
-        <f>M9/M$21</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N31">
-        <f>N9/N$21</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O31">
-        <f>O9/O$21</f>
+        <f t="shared" si="10"/>
         <v>3.1756113051762465E-4</v>
       </c>
       <c r="P31">
-        <f>P9/P$21</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q31">
